--- a/Chatmode_api/res_84.xlsx
+++ b/Chatmode_api/res_84.xlsx
@@ -468,17 +468,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Có chốt e chưa ạ ánh hồng</t>
+          <t>Của ông quý tỏi tặng ín thích màu hường rồiđừng ai tranh nhé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Có chốt e chưa ạ ánh hồng</t>
+          <t>Based on the provided comment 'Của ông quý tỏi tặng ín thích màu hường rồi đừng ai tranh nhé', it appears to be a personal expression or sharing of appreciation for a gift received. The phrase 'Của ông quý tỏi tặng' suggests that someone named 'Ông quý tỏi' gave a gift, and the rest of the comment indicates the commenter's liking for the color. Hence, the appropriate label would be 1: Want to share something.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -490,22 +490,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>grocery</t>
+          <t>fnb</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lên quạt xạc cầm tay đi NA</t>
+          <t>Con xin loc ong xin loc be a kai</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Lên quạt xạc cầm tay đi NA</t>
+          <t>The comment 'Con xin loc ong xin loc be a kai' does not refer to the proper name of someone. It seems to be a sentence or phrase in a language other than English. Therefore, label 9: In other remaining cases is more suitable.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -517,17 +517,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>clothing</t>
+          <t>others</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>Sádccggg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>'label'</t>
+          <t>'top 2'</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -549,12 +549,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Quay vong đi bé đẹp</t>
+          <t>oh vậy thôi</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Quay vong đi bé đẹp</t>
+          <t>Based on the given comment 'oh vậy thôi' which translates to 'oh well' or 'that's it' in English, it is difficult to determine a clear context or intent from this short phrase alone. Without additional information, it is not possible to accurately analyze or interpret the comment. Therefore, the most appropriate label in this case would be 'Can not analyze it' (label 10).</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -576,17 +576,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hàng hôm kia</t>
+          <t>Hag e 2 ngày r chưa ai đn chốt</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Hàng hôm kia</t>
+          <t>The comment 'Hag e 2 ngày r chưa ai đn chốt' seems to indicate a sense of frustration or impatience due to not receiving any responses or confirmation for the past two days. This comment suggests a desire to express dissatisfaction or seek attention. Therefore, label 1: Want to share something is more suitable as it reflects the need to share one's frustration or seek acknowledgment.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -603,17 +603,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hi 2 chú</t>
+          <t>Csi a vua lam</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Hi 2 chú</t>
+          <t>Based on the given comment 'Csi a vua lam?', it is difficult to determine the intended meaning or context. Without further information or context, it is not possible to analyze the comment and assign a specific label. Hence, the most appropriate label in this case would be 'Can not analyze it.' (Label 10).</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -625,17 +625,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>fnb</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ádffff</t>
+          <t>Xin lộc ông vs các bé vs cậu bé ankai</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Ádffff</t>
+          <t>Based on the given comment, which is 'Xin lộc ông vs các bé vs cậu bé ankai,' it seems to be a personal message or a sharing of information rather than a general statement or question. The comment does not indicate any specific intention to share something with others. Therefore, label '9: In other remaining cases' is more suitable in this context.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -652,22 +652,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>clothing</t>
+          <t>others</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ctfiyc</t>
+          <t>Vi chị biết bao nhiêu để chi đặt tiếp</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Ctfiyc</t>
+          <t>The comment 'Vi chị biết bao nhiêu để chi đặt tiếp?' is a question asking for information or guidance. It seems like the person is seeking advice or assistance regarding how much they should spend or order. This indicates a desire to make a request rather than a general statement or any other remaining cases. Therefore, the most suitable label for this comment is 2: Want to make a request.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -684,12 +684,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>anh chị ở chợ nguyen tri phương  tiệm vang ngoc hà</t>
+          <t>Thay ve may ngay di e</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>anh chị ở chợ Nguyễn Tri Phương, tiệm Vang Ngọc Hà</t>
+          <t>The comment 'Thay ve may ngay di e' is a request or a suggestion. The phrase 'Thay ve' implies a desire to change something, and 'may ngay di e' suggests a request or plan for the future. Therefore, the most suitable label for this comment is 2: Want to make a request.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -706,22 +706,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>fnb</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Chấm</t>
+          <t>Dai dong 19 91</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Chấm</t>
+          <t>The comment 'Dai dong 19 91' does not refer to the proper name of someone. It appears to be a combination of words or numbers without clear context. Therefore, label 9: In other remaining cases is more suitable.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -733,22 +733,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>clothing</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Zx</t>
+          <t>..</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Zx</t>
+          <t>The provided comment, '..' is vague and lacks any specific information to determine the appropriate label. Since it is not possible to analyze or determine any label based on the given comment, the most suitable label is 'Can not analyze it.' (Label 10).</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -760,22 +760,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>fnb</t>
+          <t>clothing</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Chị nói chuyen dễ thương</t>
+          <t>Hi</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Chị nói chuyện dễ thương</t>
+          <t>Based on the given descriptions, the label '10: Cannot analyze it' is the most suitable for the comment 'Hi'. Since 'Hi' is a simple greeting without any specific context related to clothing or a livestream for clothing sale, it cannot be analyzed or categorized into any specific label provided.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -787,17 +787,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>clothing</t>
+          <t>others</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Dồn đơn bữa chưa gọi nka thảo</t>
+          <t>E hỏi dúp a đi e</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Yêu cầu dồn đơn bữa chưa gọi nka thảo</t>
+          <t>Based on the provided comment 'E hỏi dúp a đi e,' it translates to 'Can you help me with a question?' This indicates that the person is seeking assistance or requesting information. Therefore, label 2: 'Want to make a request' is the most suitable choice.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -814,22 +814,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>accessory</t>
+          <t>fnb</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Lên bông tai xuping di e</t>
+          <t>Hôm nay xin Lộc 57 nha các Ông</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Lên bông tai xuping di e</t>
+          <t>The comment 'Hôm nay xin Lộc 57 nha các Ông' is not referring to the proper name of someone. It appears to be a request or announcement related to a person named 'Lộc 57.' Therefore, label 9 (In other remaining cases) is more suitable in this context.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -841,22 +841,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>clothing</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Đọc đúng tên rồi đó</t>
+          <t>Em có đơn hom t7</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Đọc đúng tên rồi đó</t>
+          <t>Based on the provided comment 'Em có đơn hom t7', it appears to be written in a non-English language, specifically Vietnamese. As an automated professional labeling model, I am designed to analyze and label text in English. Since I cannot understand or analyze text in languages other than English, the appropriate label in this case would be 'Can not analyze it.'</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -868,22 +868,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>clothing</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Chuẩn kem trộn Tp cần thơ</t>
+          <t>56ang 58 l</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Chuẩn kem trộn Tp cần thơ</t>
+          <t>Based on the given comment '56ang 58 l', it does not provide any specific product specifications such as size, color, weight, or product code. Therefore, it falls under the category of 'other remaining cases' which is label 9.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -895,54 +895,54 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>grocery</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>kim nguyen chốt giống máy bay</t>
+          <t>Chị chia sẻ rồi</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>kim nguyen chốt giống máy bay</t>
+          <t>The comment 'Chị chia sẻ rồi' translates to 'I've already shared' in English. Based on the provided descriptions, the comment seems to indicate that the person has already shared something. Therefore, the most appropriate label would be 1: Want to share something.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>grocery</t>
+          <t>others</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Kk</t>
+          <t>An An</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Kk</t>
+          <t>The comment 'An An' does not provide enough context to determine if it is referring to the proper name of someone or falls into any specific category. Since it does not meet the criteria for label 0, which is specifically for proper names, the most appropriate label would be 9, which covers all other remaining cases.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -954,93 +954,93 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>oh vậy thôi</t>
+          <t>Tặng 3 50k 357</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>oh vậy thôi</t>
+          <t>Based on the description provided, the comment 'Tặng 3 50k 357' seems to be indicating a promotional offer where the customer will receive three items priced at 50,000 VND each with a product code of 357. This information corresponds to the label '3: Provide product specifications such as size, color, weight, and product code,' as it explicitly mentions the number of items, price, and product code.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>fnb</t>
+          <t>clothing</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Hôm nay xin Lộc 57 nha các Ông</t>
+          <t>Trường MN Thị trấn Thường Xuân Thanh Hoá</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Hôm nay xin Lộc 57 nha các Ông</t>
+          <t>The comment 'Trường MN Thị trấn Thường Xuân Thanh Hoá' does not refer to the proper name of someone, but rather appears to be a description of a location or institution. Therefore, the appropriate label for this comment would be 9, which signifies 'In other remaining cases.'</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>grocery</t>
+          <t>clothing</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Chăn đi Na</t>
+          <t>tặng 824</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Chăn đi Na</t>
+          <t>The comment 'tặng 824' appears to be a gift or giveaway mention, indicating that the person wants to give away or share something. It is not clear from the comment what exactly is being offered or shared, but based on the context of a clothing sale livestream, it is likely that the person wants to give away or share a clothing item. Therefore, the most appropriate label for this comment is 1: Want to share something.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>fnb</t>
+          <t>clothing</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Lôn đanh gì chi</t>
+          <t>Tặng 507</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Lôn đanh gì chi</t>
+          <t>Based on the given comment 'Tặng 507', it is unclear what it refers to or what the context is. Without further information or context, it is not possible to analyze or determine the appropriate label for this comment.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1050,24 +1050,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>clothing</t>
+          <t>others</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>Tặng 350k312</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>'top_1'</t>
+          <t>The comment 'Tặng 350k312' does not provide sufficient context or information to determine its meaning. Without additional information, it is not possible to analyze or interpret the comment accurately.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1077,56 +1077,56 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>clothing</t>
+          <t>others</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>E mua mấy lần rùi chị chút e ib đc nha</t>
+          <t>Tang</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>E mua mấy lần rùi chị chút e ib đc nha</t>
+          <t>'top 1'</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>clothing</t>
+          <t>others</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Tang 476</t>
+          <t>Cung Kim</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Tang 476</t>
+          <t>The comment 'Cung Kim' does not provide enough context to determine whether it refers to the proper name of someone or falls under any other category. Without additional information, it is not possible to accurately assign a specific label. Therefore, the most appropriate label would be 9: In other remaining cases.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1138,22 +1138,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>clothing</t>
+          <t>others</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Tặng 560</t>
+          <t>Nguyễn Hằng</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Tặng 560</t>
+          <t>'top 1'</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1165,22 +1165,22 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>clothing</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Tặng 3 50k 638</t>
+          <t>Văn Thị Trang</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Tặng 3 50k 638</t>
+          <t>The name 'Văn Thị Trang' appears to be a proper name, indicating that it belongs to an individual. Therefore, the most appropriate label for 'Văn Thị Trang' would be 0: Referring to the proper name of someone.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1192,22 +1192,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>clothing</t>
+          <t>others</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Đcs</t>
+          <t>Hoang My Anh</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Đcs</t>
+          <t>The comment 'Hoang My Anh' does not provide enough context to determine if it is referring to the proper name of someone or if it falls into any other remaining cases. Without additional information, it is difficult to accurately assign a specific label. Therefore, the most appropriate label would be 9: In other remaining cases.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1224,12 +1224,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Duyên Nguyễn</t>
+          <t>Nguyễn Thị Kim Anh ranh vô coi</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Duyên Nguyễn</t>
+          <t>Based on the provided comment 'Nguyễn Thị Kim Anh ranh vô coi,' the label '0: Referring to the proper name of someone' is more suitable. The comment includes a name 'Nguyễn Thị Kim Anh,' which suggests that it is referring to a specific person's name rather than being a general statement or describing any remaining cases. Therefore, the label '0' is the most appropriate choice.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1246,22 +1246,22 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>clothing</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Tặng 3 50k 963</t>
+          <t>Tặng 839</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Tặng 3 50k 963</t>
+          <t>Based on the provided description, it is not clear what 'Tặng 839' refers to. Without further context or information, it is difficult to analyze the comment and determine its appropriate label. Therefore, 'Can not analyze it' (label 10) is the most suitable label for the comment 'Tặng 839'.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1278,17 +1278,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>tặng 824</t>
+          <t>Tặng 177</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>tặng 824</t>
+          <t>The comment 'Tặng 177' does not provide enough context to determine its exact meaning. However, based on the given labels, 'In other remaining cases' (label 9) seems to be more suitable as it covers situations that do not fall under the specific category of 'Want to share something' (label 1). Without further context, it is likely that 'Tặng 177' refers to a gift or giveaway related to the clothing sale livestream, which would fall under the 'In other remaining cases' category.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1300,22 +1300,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>grocery</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Em seo đồng hồ cũ của em chưa</t>
+          <t>Có nhìn thấy e k chị</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Em seo đồng hồ cũ của em chưa</t>
+          <t>The comment 'Có nhìn thấy e k chị?' is in Vietnamese and the translation in English is 'Can you see me or not, sis?' This comment is unclear and requires more context to understand its meaning. Since it cannot be properly analyzed without additional information, the most appropriate label would be 10: Can not analyze it.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1327,22 +1327,22 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>clothing</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>túi gia bn e</t>
+          <t>Còn L k ạ</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>túi gia bn e</t>
+          <t>The comment 'Còn L k ạ?' is ambiguous and does not provide enough context to determine the appropriate label. Without additional information or clarification, it is not possible to accurately analyze the comment. Therefore, the most suitable label in this case is 'Can not analyze it.'</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1354,17 +1354,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>grocery</t>
+          <t>others</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ng lớn mang dk k c</t>
+          <t>Chị có OLay ngày đêm ko</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Ng lớn mang dk k c</t>
+          <t>The comment 'Chị có OLay ngày đêm ko?' is a question asking if the person is constantly online (OLay) day and night. This comment does not appear to be a request but rather an inquiry about someone's online availability. Therefore, label 9 ('In other remaining cases') is more suitable as it encompasses a broader range of scenarios that do not specifically fall under label 2 ('Want to make a request').</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1381,22 +1381,22 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>clothing</t>
+          <t>grocery</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Đơn hôm kia gọi chốt hết chưa em</t>
+          <t>Có lay giày không em</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Đơn hôm kia gọi chốt hết chưa em</t>
+          <t>Chắc chắn là câu hỏi</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1408,22 +1408,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>fnb</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Balô tôm còn kg Shopee</t>
+          <t>N có số đá ko</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Balô tôm còn kg Shopee</t>
+          <t>Chắc chắn là câu hỏi</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1440,17 +1440,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Đầm hồng chất gì e</t>
+          <t>Qua mẫu đê</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Đầm hồng chất gì e?</t>
+          <t>The phrase 'Qua mẫu đê' is written in Vietnamese and does not provide enough context to determine the appropriate label. Without further information, it is difficult to analyze the comment or assign a specific label to it.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1462,54 +1462,54 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>clothing</t>
+          <t>others</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Bộ sau lưng a kd đi ạ đen dài tay</t>
+          <t>E Thuong mang vay size may z em</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Bộ sau lưng a kd đi ạ đen dài tay</t>
+          <t>The comment 'E Thuong mang vay size may z em' includes the mention of 'size,' indicating that the person is inquiring about the size of a dress. This falls under the category of providing product specifications, which aligns with label 3. The other information like color, weight, and product code is not mentioned in the comment, so label 3 is the most suitable choice.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>clothing</t>
+          <t>others</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Đũi 35 87k</t>
+          <t>Có ai nam chị không</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Đũi 35 87k</t>
+          <t>Chắc chắn là câu hỏi</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1521,12 +1521,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Nam M</t>
+          <t>túi gia bn e</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>'top_1'</t>
+          <t>Based on the limited information provided, it is difficult to determine the exact meaning of the comment 'túi gia bn e'. Without further context or clarification, it is not possible to analyze the comment accurately. Therefore, the most appropriate label would be 'Can not analyze it' (label 10).</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1548,12 +1548,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Mả 28 sez28</t>
+          <t>Bộ áo dài bn à chị</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Mả 28 sez28</t>
+          <t>The comment 'Bộ áo dài bn à chị?' is written in a language that is not understandable by the model. Since the model cannot analyze it, the most appropriate label would be 10: Cannot analyze it.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1563,34 +1563,34 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>clothing</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Quần đáML</t>
+          <t>Quần bn chị</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Quần đáML</t>
+          <t>Since the given comment 'Quần bn chị?' does not provide enough context or information for analysis, it is not possible to determine its appropriate label. As a result, the most suitable label for this comment would be 'Can not analyze it,' which corresponds to label 10.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1602,44 +1602,44 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>S 28 Ma 42</t>
+          <t>Chị like rồi chị có đc quà ko e</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>S 28 Ma 42</t>
+          <t>Chắc chắn là câu hỏi</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>fnb</t>
+          <t>clothing</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Ms62 1 kem s  1 den S gộp dơn</t>
+          <t>E 1 quần 16 kg chị Trang</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Ms62 1 kem s 1 den S gộp dơn</t>
+          <t>The comment 'E 1 quần 16 kg chị Trang' mentions the size (16 kg) of a pair of pants. It does not provide any additional specifications such as color, weight, or product code. Therefore, label 9 ('In other remaining cases') is more suitable because it covers cases where the comment does not fit into any specific label category.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1656,17 +1656,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>34 xanh rêu</t>
+          <t>Dạ lấy size 6 đi</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>34 xanh rêu</t>
+          <t>The comment 'Dạ lấy size 6 đi?' is a request asking for a specific size of a product. It does not provide any product specifications such as color, weight, or product code. Therefore, label 2, 'Want to make a request,' is the most appropriate label for this comment.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1678,22 +1678,22 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>clothing</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>M31 don don</t>
+          <t>Sét 130</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Chọn sản phẩm M31 don don.</t>
+          <t>Since the comment 'Sét 130' does not provide any specific product specifications such as size, color, weight, or product code, it falls under the category of 'other remaining cases'. Therefore, label 9 is the most appropriate choice.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1710,12 +1710,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>de e quan chi mac siz m</t>
+          <t>Áo quần L</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>'label'</t>
+          <t>Based on the provided description, the comment 'Áo quần L' does not provide enough information to be analyzed or labeled. It seems to be a partial or incomplete statement, lacking context or clear meaning. Therefore, it is more appropriate to assign the label 'Can not analyze it' (label 10) to this comment.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1732,22 +1732,22 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>grocery</t>
+          <t>others</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Đũa 5 sao</t>
+          <t>Mền ru xì 99k 0327500577</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Đũa 5 sao</t>
+          <t>Based on the given comment 'Mền ru xì 99k 0327500577', the more suitable label would be 5: Finalize the order with a phone number or shipping address.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1759,17 +1759,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>clothing</t>
+          <t>grocery</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>bộ quần</t>
+          <t>Đúng rồicj mua 2 lọ 180k mà</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>'label'</t>
+          <t>The comment 'Đúng rồi mua 2 lọ 180k mà' does not provide any specific product specifications such as size, color, weight, or product code. It seems to express agreement with a previous statement and mentions the purchase of two jars for 180k. Therefore, label 9, which represents 'In other remaining cases,' is more suitable for this comment.</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1786,22 +1786,22 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>grocery</t>
+          <t>others</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Bưởi dồn đơn</t>
+          <t>Khoác vét đi em</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Bưởi dồn đơn</t>
+          <t>The comment 'Khoác vét đi em?' is in Vietnamese and does not provide enough context to determine its meaning. Without further information, it is not possible to analyze the comment and assign a specific label. Therefore, the most appropriate label is 'Can not analyze it' (Label 10).</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1818,12 +1818,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>Jump den</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>'label'</t>
+          <t>'top 1'</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1845,12 +1845,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Em cá sấu</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Em cá sấu</t>
+          <t>The comment '26.0' does not provide enough context or information to be analyzed. It is a standalone number without any indication of its purpose or relevance. Therefore, it is not possible to categorize or label it accurately. Hence, '10: Cannot analyze it' is the most appropriate label.</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1872,12 +1872,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Mỗi màu 3</t>
+          <t>Quần da m</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Mỗi màu 3</t>
+          <t>Based on the limited context provided, it is difficult to accurately analyze the comment 'Quần da m'. Without further information or clarification, it is not possible to determine the appropriate label for this comment. Therefore, 'Can not analyze it' (label 10) is the most suitable choice.</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1899,130 +1899,130 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Chốt hàng: Khách mới - Mã + SĐTHotline:0967.673.671… Xem thêm2</t>
+          <t>50k2</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Chốt hàng: Khách mới - Mã + SĐT Hotline: 0967.673.671... Xem thêm</t>
+          <t>Based on the provided comment '50k2', it is not clear whether it refers to a phone number or a shipping address. Therefore, it falls under the 'In other remaining cases' category, which is represented by label 9.</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>clothing</t>
+          <t>accessory</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>E nhận được đồ roi cj chọn lộn mất bộ đồ màu trắng hic</t>
+          <t>Trang</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>E nhận được đồ roi cj chọn lộn mất bộ đồ màu trắng hic</t>
+          <t>The comment 'Trang' does not provide any context or information that would indicate it is referring to the proper name of someone. Without additional context, it is more appropriate to assign label 9: In other remaining cases.</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>clothing</t>
+          <t>others</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Hàng gửi nhầm e nt xem mà không tl shop</t>
+          <t>S30</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Hàng gửi nhầm e nt xem mà không tl shop</t>
+          <t>Based on the given description, the label '10: Cannot analyze it' is more suitable for the comment 'S30'. This is because the comment is not clear or informative enough for the automated professional labeling model to analyze and provide a specific label. Without sufficient information or context, it is not possible to determine the appropriate label for the comment.</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>grocery</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Đẹp quá mà bé</t>
+          <t>Spa dồn đơn</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Đẹp quá mà bé</t>
+          <t>Based on the provided description, the comment 'Spa dồn đơn' does not clearly fall into either category. Without further context or information, it is difficult to analyze the comment and determine its appropriate label. Therefore, the most suitable label for this comment is 'Can not analyze it.'</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>grocery</t>
+          <t>others</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>chị ơi gói cẩn thận giúp em nhé mua hơn chục cái về hộp nát hết trơn à đau lòng lắm</t>
+          <t>Cv L</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>chị ơi gói cẩn thận giúp em nhé mua hơn chục cái về hộp nát hết trơn à đau lòng lắm</t>
+          <t>'top 1'</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2034,103 +2034,103 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Hàng đẹp giá rẻ</t>
+          <t>Chốt hàng: Khách mới - Mã + SĐTHotline:0967.673.671… Xem thêm2</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Hàng đẹp giá rẻ</t>
+          <t>The provided comment includes information related to finalizing an order by providing a phone number (SĐT) and indicating the need to contact the seller through a hotline (Hotline). It does not refer to the proper name of someone. Therefore, label 5 is more suitable as it corresponds to the action of finalizing the order with a phone number or shipping address.</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>fnb</t>
+          <t>accessory</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Chi nhận hàng roi</t>
+          <t>Đặt hàng Mã  Màu Số kí Số ĐTTrên cùng 1 tin nhắn</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Chi nhận hàng roi</t>
+          <t>The comment 'Đặt hàng Mã Màu Số kí Số ĐT Trên cùng 1 tin nhắn' includes specific instructions related to placing an order, including a product code (Mã), color (Màu), size (Số kí), and phone number (Số ĐT). It indicates the intention to make a request for ordering a specific product with specific details. Therefore, the most appropriate label for this comment would be 2: Want to make a request.</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>grocery</t>
+          <t>clothing</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Chị nhận dk xả rùi nhé thơm lắm nhận buổi chiều tối giặt đồ sài lun ok lắm ý1</t>
+          <t>Moi nhân đơn hoi chiều đồ 25kg chật c ơi</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Chị nhận được xả rồi nhé, thơm lắm. Chị nhận buổi chiều tối giặt đồ sạch luôn, ok lắm ý.</t>
+          <t>The comment 'Moi nhân đơn hoi chiều đồ 25kg chật c ơi' appears to be in Vietnamese language and doesn't provide sufficient context for analysis. As an automated professional labeling model, I am not able to understand the specific meaning or purpose of the comment. Therefore, I would choose label 10: Cannot analyze it, as it is not possible to determine an appropriate label without further information.</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>grocery</t>
+          <t>clothing</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Nhận rồi em</t>
+          <t>Hơi rộng hic hic</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Nhận rồi em</t>
+          <t>The comment 'Hơi rộng hic hic' indicates that the clothing item being described is a bit wide or loose. Since it provides some information about the fit of the garment, we can categorize it under Label 9: In other remaining cases.</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -2142,49 +2142,49 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>E chi nhật được đồ dồi đẹp lắm em</t>
+          <t>Shop oi gửi lôn đồ lộn cho chị rồi</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>E chi nhật được đồ dồi đẹp lắm em</t>
+          <t>Based on the provided comment 'Shop oi gửi lôn đồ lộn cho chị rồi' which translates to 'Shop, please send the miscellaneous items to me,' it seems like the person is requesting or asking the shop to send them miscellaneous items. This falls under the category of 'Want to share something' (label 1) as the person is expressing their desire to receive the items. Therefore, label 1 is the most appropriate choice.</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>grocery</t>
+          <t>fnb</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Lăn nách này thích lắm</t>
+          <t>đồ đẹp nhưng may hơi nhỏ quá my</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Lăn nách này thích lắm</t>
+          <t>The comment 'đồ đẹp nhưng may hơi nhỏ quá' indicates that the person finds the item attractive ('đồ đẹp') but complains about its small size ('may hơi nhỏ quá'). Although they have a complaint, it is not a strong negative sentiment or a dislike. They appreciate the appearance of the item but are disappointed with its small size. Therefore, the most appropriate label for this comment is 9: In other remaining cases.</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -2196,76 +2196,76 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>hàng chất quá c ơi</t>
+          <t>E nhận được đồ roi cj chọn lộn mất bộ đồ màu trắng hic</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>hàng chất quá c ơi</t>
+          <t>The comment 'E nhận được đồ roi cj chọn lộn mất bộ đồ màu trắng hic' expresses dissatisfaction and a mistake in the selection process, indicating a negative experience. It suggests that the person received the wrong item and lost the white-colored set of clothes. Therefore, the most suitable label for this comment would be 6: Give a negative review, express a dislike.</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>clothing</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Vải cực đep</t>
+          <t>Kem sức thơm thiệt nhưng mất hơn ngoài còn tốn tiền sip</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Vải cực đẹp</t>
+          <t>The comment 'Kem sức thơm thiệt nhưng mất hơn ngoài còn tốn tiền sip' expresses dissatisfaction and implies a negative review. The phrase 'mất hơn ngoài' suggests that the product is not worth the cost. Therefore, the most appropriate label for this comment is 6: Give a negative review, express a dislike.</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>clothing</t>
+          <t>others</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Xuat sac</t>
+          <t>Check inbox giúp chị hàng lỗi Cám ơn</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Xuất sắc</t>
+          <t>The comment 'Check inbox giúp chị hàng lỗi Cám ơn' can be understood as a request for assistance regarding a faulty product. The phrase 'hàng lỗi' implies that there is a problem with the merchandise, and the phrase 'giúp chị' indicates a plea for help. Therefore, the most suitable label for this comment is 2: Want to make a request.</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -2277,17 +2277,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>chi nhận đc khăn mặt rui nhé hàng đẹp e ah</t>
+          <t>Chai răng miệg xài ok lm c e mới mua thêm 2 chai nữa chờ nhận hàg nak c</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>chi nhận đc khăn mặt rui nhé hàng đẹp e ah</t>
+          <t>The comment 'Chai răng miệg xài ok lm c e mới mua thêm 2 chai nữa chờ nhận hàg nak c?' seems to be expressing satisfaction or approval regarding the toothpaste purchased. It mentions that the user found it good and bought two more bottles, eagerly waiting to receive the order. Since the comment reflects a positive sentiment and indicates satisfaction with the product, the more suitable label for this comment would be '1: Want to share something.'</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2299,22 +2299,22 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>clothing</t>
+          <t>grocery</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Mình nhận được áo dài 360k rồichất đẹp lắmcảm ơn shop nhé</t>
+          <t>Chị nhận dk xả rùi nhé thơm lắm nhận buổi chiều tối giặt đồ sài lun ok lắm ý1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Mình nhận được áo dài 360k rồi, chất đẹp lắm, cảm ơn shop nhé.</t>
+          <t>'top 1'</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2326,22 +2326,22 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>grocery</t>
+          <t>clothing</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Chị nhận hàng gối và thảm rồi nha em  đẹp xuất sắc nhé</t>
+          <t>E nhan roi hang ok xuat sac</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Chị nhận hàng gối và thảm rồi nha em đẹp xuất sắc nhé</t>
+          <t>'output'</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2358,12 +2358,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Kem rít là kem cốt nguyên chất</t>
+          <t>Kem cj trắng nhìn thích lm</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Kem rít là kem cốt nguyên chất</t>
+          <t>The comment 'Kem cj trắng nhìn thích lm' contains positive words such as 'trắng' (white) and 'thích' (like), which indicate a positive sentiment. Additionally, the phrase 'nhìn thích' implies that the speaker finds the product visually appealing. Therefore, the most appropriate label for this comment is 7: Give a positive review, show enthusiasm.</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2380,22 +2380,22 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>fnb</t>
+          <t>others</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Bạn e nhận được mật Khen ngon đó anh</t>
+          <t>E ms nhận đc áo khoác siêu đẹp</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>'top_1'</t>
+          <t>The comment 'E ms nhận đc áo khoác siêu đẹp' in Vietnamese translates to 'I just received a super beautiful jacket.' The phrase 'siêu đẹp' (super beautiful) indicates a positive sentiment and enthusiasm. Therefore, the most appropriate label for this comment would be 7: Give a positive review, show enthusiasm.</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Sà bông thơm hoa trời luôn chị</t>
+          <t>The comment 'Sà bông thơm hoa trời luôn chị' is an expression of enthusiasm and positive sentiment. The phrase 'thơm hoa trời luôn' indicates a delightful fragrance, and 'chị' implies addressing someone respectfully. Therefore, the appropriate label is 7: Give a positive review, show enthusiasm.</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2434,17 +2434,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>fnb</t>
+          <t>others</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Chị đang ăn cơm với lạp xưởng nè Lạp xưởng ngon lắm</t>
+          <t>Nước hoa thái rất thơm âu cũng rất thơm</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Chị đang ăn cơm với lạp xưởng nè Lạp xưởng ngon lắm</t>
+          <t>The comment 'Nước hoa thái rất thơm âu cũng rất thơm' expresses positive sentiment and enthusiasm about the Thai perfume being discussed. The use of words like 'rất thơm' (very fragrant) conveys a positive impression. Therefore, the most appropriate label for this comment is 7: Give a positive review, show enthusiasm.</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2461,22 +2461,22 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>clothing</t>
+          <t>grocery</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Đẹp qua chừng</t>
+          <t>Goi chi nhe e Chi mua hang Ben e nhieu Roi nhe e sai ngon Lam e</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Đẹp qua chừng</t>
+          <t>The comment 'Goi chi nhe e Chi mua hang Ben e nhieu Roi nhe e sai ngon Lam e' contains a request for ordering groceries, indicated by 'Goi' (call) and 'mua hang' (purchase goods). The phrase 'Roi nhe' (then) suggests a continuation of the conversation regarding the purchase. Therefore, the most appropriate label is 2: Want to make a request.</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2488,22 +2488,22 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>clothing</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Tui nha Phưong chất rat la ok đẹp xuất sắc</t>
+          <t>đô dẹp xỉu</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Tui nha Phưong chất rat la ok đẹp xuất sắc</t>
+          <t>The comment 'đô dẹp xỉu' is in Vietnamese, and it doesn't provide clear context or meaning. As an automated professional labeling model, I cannot analyze the comment to determine its appropriateness or assign a specific label. Therefore, the most suitable label for this comment would be 'Can not analyze it,' which corresponds to label 10.</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2520,12 +2520,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Mua hàng bên nhà c Ngọc anh tốt mà sai OK nữa moi người yên tâm e mua bên c nhíu lấm rồi</t>
+          <t>Nước súc miệng nhật này thích lắm</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Mua hàng bên nhà c Ngọc anh tốt mà sai OK nữa moi người yên tâm e mua bên c nhíu lấm rồi</t>
+          <t>The comment 'Nước súc miệng nhật này thích lắm' translates to 'I really like this Japanese mouthwash' in English. The use of the word 'thích lắm' (really like) indicates a positive sentiment and enthusiasm towards the product. Therefore, the most appropriate label for this comment would be 7: Give a positive review, show enthusiasm.</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2542,17 +2542,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>fnb</t>
+          <t>clothing</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>E vừa nhận dc ba khía với xoài dẻoxoài ngon quá aba khía của a hòa hiệp làm ngon sạch ăn tự tin luôn</t>
+          <t>Đẹp quá em ơi</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>E vừa nhận dc ba khía với xoài dẻoxoài ngon quá aba khía của a hòa hiệp làm ngon sạch ăn tự tin luôn</t>
+          <t>The phrase 'Đẹp quá em ơi' translates to 'So beautiful, oh dear!' in English. It expresses admiration and positive sentiment. Therefore, the most appropriate label would be 7: Give a positive review, show enthusiasm.</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2569,22 +2569,22 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>grocery</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>DEP</t>
+          <t>C Ngọc Anh dễ thương lại bán hàng có tâm</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>DEP</t>
+          <t>The comment 'C Ngọc Anh dễ thương lại bán hàng có tâm' contains positive sentiment and enthusiasm. The phrase 'dễ thương' suggests that the person finds Ngọc Anh adorable or likable, and 'bán hàng có tâm' indicates that Ngọc Anh sells products with care or dedication. These positive attributes and enthusiasm align with label 7: Give a positive review, show enthusiasm.</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2596,76 +2596,76 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>clothing</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>chi xả con đầu rồng đỏ lúc trước có rồi</t>
+          <t>R nhận đồ r chị ơi đẹp quá</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>chi xả con đầu rồng đỏ lúc trước có rồi</t>
+          <t>The comment 'R nhận đồ r chị ơi đẹp quá' appears to be a request related to receiving or obtaining clothes. It expresses admiration for the clothes being described as beautiful. Therefore, the most suitable label for this comment would be '2: Want to make a request.'</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>accessory</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Huỷ B40</t>
+          <t>E mới nhận hàng đẹp lắm chị</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Huỷ B40</t>
+          <t>The comment 'E mới nhận hàng đẹp lắm chị' translates to 'I just received the item, it's very beautiful, sister.' This comment expresses positive sentiment and excitement about the received product. Therefore, the most appropriate label for this comment is 7: Give a positive review, show enthusiasm.</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>clothing</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Xả c jum quẩn dài nha</t>
+          <t>Xả giùm chị nhe</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Xả c jum quẩn dài nha</t>
+          <t>Based on the description provided, label 2: Want to make a request is more suitable for the comment 'Xả giùm chị nhe'. The phrase 'Xả giùm chị nhe' in Vietnamese translates to 'Please give me a discount/sale, sister.' It indicates that the person is requesting a discount or sale on the clothing item. This aligns with the description of label 2, which states 'Want to make a request.' Therefore, label 2 is the most appropriate choice.</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2682,17 +2682,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Xả Jum dùm chị nhe</t>
+          <t>E huyr mã 56 nha c quần e k vừa</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Xả Jum dùm chị nhe</t>
+          <t>Based on the given comment 'E huyr mã 56 nha c quần e k vừa', it appears to be written in a language that is not recognizable or understandable by the model. As a result, it cannot analyze the comment or determine its meaning. Therefore, the most appropriate label in this case is 10: Cannot analyze it.</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2709,17 +2709,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>B44 huỷ b43 dồn</t>
+          <t>Chị xã Jum dùm e</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>B44 huỷ b43 dồn</t>
+          <t>Based on the given descriptions, the comment 'Chị xã Jum dùm e?' is more likely to fall under label 0, which refers to the proper name of someone. The term 'Chị xã Jum' appears to be a personal reference or a nickname for someone, suggesting that it is related to a specific person rather than a general case. Therefore, label 0 is the most suitable for this comment.</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
